--- a/Technology/Crowdstrike.xlsx
+++ b/Technology/Crowdstrike.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494EAB09-ADF3-AC46-8C21-48BF33E84D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27559B28-5F3D-3D4F-95D7-044832D2D766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>FCF Growth YoY</t>
   </si>
   <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -899,31 +899,9 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -961,7 +939,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -989,16 +966,19 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +993,25 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,11 +2396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S143" sqref="S143"/>
+      <selection pane="bottomRight" activeCell="P106" sqref="P106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2413,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="8">
         <v>2017</v>
@@ -2434,19 +2433,19 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="23">
         <v>2023</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="23">
         <v>2024</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="23">
         <v>2025</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="23">
         <v>2026</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -2510,32 +2509,32 @@
       <c r="G3" s="1">
         <v>1451594000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>2290000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="24">
         <v>2957000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="24">
         <v>3806000000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="24">
         <v>4868000000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="24">
         <v>6020000000</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="O3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="P3" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
@@ -2585,15 +2584,15 @@
         <f t="shared" si="0"/>
         <v>0.23664749383730488</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="49">
         <f>(G4+F4+E4)/3</f>
         <v>0.80114606963000312</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="49">
         <f>(G20+F20+E20)/3</f>
         <v>0.28779739161510814</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="49">
         <f>(G29+F29+E29)/3</f>
         <v>0.39139338345003249</v>
       </c>
@@ -2667,17 +2666,17 @@
       <c r="G6" s="10">
         <v>1068373000</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="O6" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="P6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2702,15 +2701,15 @@
       <c r="G7" s="2">
         <v>0.73599999999999999</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="49">
         <f>G7</f>
         <v>0.73599999999999999</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="49">
         <f>G21</f>
         <v>-8.0199999999999994E-2</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="49">
         <f>G30</f>
         <v>-0.16009999999999999</v>
       </c>
@@ -2772,7 +2771,7 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="48" t="s">
         <v>96</v>
       </c>
       <c r="N9" s="19" t="s">
@@ -2807,15 +2806,15 @@
       <c r="G10" s="1">
         <v>223092000</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="49">
         <f>(G9+F9+E9)/3</f>
         <v>0.25723326987731249</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="49">
         <f>(G13+F13+E13)/3</f>
         <v>0.63834313909178275</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="49">
         <f>(G80+F80+E80)/3</f>
         <v>0.18358173302802008</v>
       </c>
@@ -2869,17 +2868,17 @@
       <c r="G12" s="1">
         <v>839638000</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="O12" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="61" t="s">
+      <c r="P12" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2912,7 +2911,7 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="M13" s="62">
+      <c r="M13" s="49">
         <f>G28/G72</f>
         <v>-0.22394792814098877</v>
       </c>
@@ -2920,7 +2919,7 @@
         <f>G28/G54</f>
         <v>-6.422153996497329E-2</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="49">
         <f>(G28-G98)/G73</f>
         <v>-6.422153996497329E-2</v>
       </c>
@@ -2974,17 +2973,17 @@
       <c r="G15" s="1">
         <v>1210921000</v>
       </c>
-      <c r="M15" s="61" t="s">
-        <v>123</v>
+      <c r="M15" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="N15" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="P15" s="50" t="s">
         <v>159</v>
-      </c>
-      <c r="P15" s="63" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3013,17 +3012,17 @@
         <f>(SUM(C35:G35)/5)</f>
         <v>7.5729906868409996E-2</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="51">
         <f>O100/G3</f>
-        <v>19.978037936227349</v>
-      </c>
-      <c r="O16" s="64">
+        <v>1.8395388918671941E-11</v>
+      </c>
+      <c r="O16" s="51">
         <f>O100/G25</f>
-        <v>-181.22394905732301</v>
-      </c>
-      <c r="P16" s="65">
+        <v>-1.6686748893603216E-10</v>
+      </c>
+      <c r="P16" s="52">
         <f>O100/G106</f>
-        <v>65.644275932318493</v>
+        <v>6.0443973022490355E-11</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3049,7 +3048,7 @@
         <v>-25231000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3070,6 +3069,9 @@
       </c>
       <c r="G18" s="1">
         <v>68810000</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3093,6 +3095,10 @@
       </c>
       <c r="G19" s="10">
         <v>-116444000</v>
+      </c>
+      <c r="M19" s="54">
+        <f>G40-G56-G61</f>
+        <v>1221917000</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3457,23 +3463,23 @@
         <v>105</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <f t="shared" ref="D35:G35" si="5">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <f t="shared" si="5"/>
         <v>-0.13516197240686439</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <f t="shared" si="5"/>
         <v>0.47070821682808556</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="22">
         <f t="shared" si="5"/>
         <v>4.3103289920828819E-2</v>
       </c>
@@ -4329,7 +4335,7 @@
       <c r="G72" s="10">
         <v>1037643000</v>
       </c>
-      <c r="M72" s="39"/>
+      <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
@@ -4550,7 +4556,7 @@
         <v>321723000</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -4572,10 +4578,6 @@
       <c r="G82" s="1">
         <v>-125354000</v>
       </c>
-      <c r="N82" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="O82" s="71"/>
     </row>
     <row r="83" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -4599,12 +4601,12 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="O83" s="73"/>
-    </row>
-    <row r="84" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="N83" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="59"/>
+    </row>
+    <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4626,13 +4628,10 @@
       <c r="G84" s="1">
         <v>33248000</v>
       </c>
-      <c r="N84" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="O84" s="23">
-        <f>G17</f>
-        <v>-25231000</v>
-      </c>
+      <c r="N84" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="O84" s="61"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4656,12 +4655,12 @@
       <c r="G85" s="1">
         <v>382100000</v>
       </c>
-      <c r="N85" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="O85" s="23">
-        <f>G56</f>
-        <v>9820000</v>
+      <c r="N85" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="O85" s="63">
+        <f>G17</f>
+        <v>-25231000</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4686,12 +4685,12 @@
       <c r="G86" s="1">
         <v>120633000</v>
       </c>
-      <c r="N86" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="O86" s="23">
-        <f>G61</f>
-        <v>764896000</v>
+      <c r="N86" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="O86" s="63">
+        <f>G56</f>
+        <v>9820000</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4716,12 +4715,12 @@
       <c r="G87" s="10">
         <v>574784000</v>
       </c>
-      <c r="N87" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O87" s="27">
-        <f>O84/(O85+O86)</f>
-        <v>-3.2568063651712373E-2</v>
+      <c r="N87" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="O87" s="63">
+        <f>G61</f>
+        <v>764896000</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4746,12 +4745,12 @@
       <c r="G88" s="1">
         <v>-112143000</v>
       </c>
-      <c r="N88" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="O88" s="23">
-        <f>G27</f>
-        <v>72355000</v>
+      <c r="N88" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="O88" s="65">
+        <f>O85/(O86+O87)</f>
+        <v>-3.2568063651712373E-2</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4784,12 +4783,12 @@
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
-      <c r="N89" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O89" s="23">
-        <f>G25</f>
-        <v>-160023000</v>
+      <c r="N89" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="O89" s="63">
+        <f>G27</f>
+        <v>72355000</v>
       </c>
       <c r="P89" s="15"/>
     </row>
@@ -4815,12 +4814,12 @@
       <c r="G90" s="1">
         <v>-414518000</v>
       </c>
-      <c r="N90" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="O90" s="27">
-        <f>O88/O89</f>
-        <v>-0.4521537528980209</v>
+      <c r="N90" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="O90" s="63">
+        <f>G25</f>
+        <v>-160023000</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4845,15 +4844,15 @@
       <c r="G91" s="1">
         <v>-16309000</v>
       </c>
-      <c r="N91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="O91" s="33">
-        <f>O87*(1-O90)</f>
-        <v>-4.7293835856455746E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="40" x14ac:dyDescent="0.25">
+      <c r="N91" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O91" s="65">
+        <f>O89/O90</f>
+        <v>-0.4521537528980209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -4875,12 +4874,15 @@
       <c r="G92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N92" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="O92" s="31"/>
-    </row>
-    <row r="93" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="N92" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="O92" s="67">
+        <f>O88*(1-O91)</f>
+        <v>-4.7293835856455746E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4902,12 +4904,10 @@
       <c r="G93" s="1">
         <v>-21546000</v>
       </c>
-      <c r="N93" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O93" s="24">
-        <v>4.095E-2</v>
-      </c>
+      <c r="N93" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="O93" s="61"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4931,11 +4931,11 @@
       <c r="G94" s="10">
         <v>-564516000</v>
       </c>
-      <c r="N94" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O94" s="34">
-        <v>1.06</v>
+      <c r="N94" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94" s="68">
+        <v>4.095E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4960,11 +4960,11 @@
       <c r="G95" s="1">
         <v>-219000</v>
       </c>
-      <c r="N95" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="O95" s="24">
-        <v>8.4000000000000005E-2</v>
+      <c r="N95" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="O95" s="70">
+        <v>1.02</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4989,15 +4989,14 @@
       <c r="G96" s="1">
         <v>15899000</v>
       </c>
-      <c r="N96" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O96" s="33">
-        <f>(O93)+((O94)*(O95-O93))</f>
-        <v>8.6583000000000007E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="40" x14ac:dyDescent="0.25">
+      <c r="N96" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="68">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -5019,40 +5018,40 @@
       <c r="G97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N97" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O97" s="31"/>
-    </row>
-    <row r="98" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="N97" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="O97" s="67">
+        <f>(O94)+((O95)*(O96-O94))</f>
+        <v>8.4861000000000006E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="48">
+      <c r="B98" s="36">
         <v>0</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="36">
         <v>0</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="36">
         <v>0</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="36">
         <v>0</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="36">
         <v>0</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="36">
         <v>0</v>
       </c>
-      <c r="N98" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O98" s="23">
-        <f>O85+O86</f>
-        <v>774716000</v>
-      </c>
+      <c r="N98" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O98" s="61"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5076,12 +5075,12 @@
       <c r="G99" s="1">
         <v>56851000</v>
       </c>
-      <c r="N99" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="O99" s="27">
-        <f>O98/O102</f>
-        <v>2.601925741290026E-2</v>
+      <c r="N99" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="O99" s="63">
+        <f>O86+O87</f>
+        <v>774716000</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5106,11 +5105,12 @@
       <c r="G100" s="10">
         <v>72531000</v>
       </c>
-      <c r="N100" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O100" s="35">
-        <v>29000000000</v>
+      <c r="N100" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O100" s="65">
+        <f>O99/O103</f>
+        <v>2.6702636182010676E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5135,12 +5135,11 @@
       <c r="G101" s="1">
         <v>-4774000</v>
       </c>
-      <c r="N101" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="O101" s="27">
-        <f>O100/O102</f>
-        <v>0.97398074258709977</v>
+      <c r="N101" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="O101" s="71">
+        <v>28238000000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5165,15 +5164,15 @@
       <c r="G102" s="10">
         <v>78025000</v>
       </c>
-      <c r="N102" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="O102" s="36">
-        <f>O98+O100</f>
-        <v>29774716000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="N102" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="O102" s="65">
+        <f>O101/O103</f>
+        <v>0.97329736381798937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -5195,12 +5194,15 @@
       <c r="G103" s="1">
         <v>1918608000</v>
       </c>
-      <c r="N103" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="O103" s="31"/>
-    </row>
-    <row r="104" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N103" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="O103" s="72">
+        <f>O99+O101</f>
+        <v>29012716000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5222,15 +5224,12 @@
       <c r="G104" s="11">
         <v>1996633000</v>
       </c>
-      <c r="N104" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="O104" s="38">
-        <f>(O99*O91)+(O101*O96)</f>
-        <v>8.3099624146226292E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N104" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="O104" s="61"/>
+    </row>
+    <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>109</v>
       </c>
@@ -5261,10 +5260,13 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
-      <c r="N105" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="O105" s="69"/>
+      <c r="N105" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O105" s="26">
+        <f>(O100*O92)+(O102*O97)</f>
+        <v>8.1332117498431736E-2</v>
+      </c>
       <c r="P105" s="15"/>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5289,33 +5291,33 @@
       <c r="G106" s="1">
         <v>441775000</v>
       </c>
-      <c r="H106" s="49">
+      <c r="H106" s="37">
         <f>G106*(1+$O$106)</f>
         <v>589472610.2743566</v>
       </c>
-      <c r="I106" s="49">
+      <c r="I106" s="37">
         <f>H106*(1+$O$106)</f>
         <v>786549619.74684739</v>
       </c>
-      <c r="J106" s="49">
+      <c r="J106" s="37">
         <f>I106*(1+$O$106)</f>
         <v>1049514928.3288478</v>
       </c>
-      <c r="K106" s="49">
+      <c r="K106" s="37">
         <f>J106*(1+$O$106)</f>
         <v>1400396818.1176169</v>
       </c>
-      <c r="L106" s="49">
+      <c r="L106" s="37">
         <f>K106*(1+$O$106)</f>
         <v>1868588235.6305699</v>
       </c>
-      <c r="M106" s="40" t="s">
+      <c r="M106" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N106" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="N106" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="O106" s="42">
+      <c r="O106" s="30">
         <f>(SUM(H4:L4)/5)</f>
         <v>0.33432767873772085</v>
       </c>
@@ -5328,147 +5330,150 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="50">
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>32965840479.464401</v>
-      </c>
-      <c r="M107" s="43" t="s">
+        <v>34000194322.087311</v>
+      </c>
+      <c r="M107" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N107" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="N107" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="O107" s="45">
+      <c r="O107" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="50">
+      <c r="H108" s="38">
         <f t="shared" ref="H108:J108" si="8">H107+H106</f>
         <v>589472610.2743566</v>
       </c>
-      <c r="I108" s="50">
+      <c r="I108" s="38">
         <f t="shared" si="8"/>
         <v>786549619.74684739</v>
       </c>
-      <c r="J108" s="50">
+      <c r="J108" s="38">
         <f t="shared" si="8"/>
         <v>1049514928.3288478</v>
       </c>
-      <c r="K108" s="50">
+      <c r="K108" s="38">
         <f>K107+K106</f>
         <v>1400396818.1176169</v>
       </c>
-      <c r="L108" s="50">
+      <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>34834428715.094971</v>
-      </c>
-      <c r="M108" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N108" s="46" t="s">
+        <v>35868782557.71788</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="N108" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="O108" s="35">
+        <f>O105</f>
+        <v>8.1332117498431736E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H109" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="O108" s="47">
-        <f>O104</f>
-        <v>8.3099624146226292E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="66" t="s">
+      <c r="I109" s="57"/>
+    </row>
+    <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H110" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="I109" s="67"/>
-    </row>
-    <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="51" t="s">
+      <c r="I110" s="40">
+        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
+        <v>27333842905.179398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H111" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="I110" s="52">
-        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>26428766718.939957</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="I111" s="52">
+      <c r="I111" s="40">
         <f>G40</f>
         <v>1996633000</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="I112" s="52">
-        <f>O98</f>
+      <c r="H112" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" s="40">
+        <f>O99</f>
         <v>774716000</v>
       </c>
     </row>
     <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I113" s="40">
+        <f>I110+I111-I112</f>
+        <v>28555759905.179398</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H114" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I113" s="52">
-        <f>I110+I111-I112</f>
-        <v>27650683718.939957</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="53" t="s">
+      <c r="I114" s="55">
+        <f>G34*(1+(5*M16))</f>
+        <v>313149212.52952188</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H115" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="I114" s="54">
-        <v>218280000</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="55" t="s">
+      <c r="I115" s="43">
+        <f>I113/I114</f>
+        <v>91.18898838836239</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H116" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I115" s="56">
-        <f>I113/I114</f>
-        <v>126.67529649505202</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="53" t="s">
+      <c r="I116" s="44">
+        <v>124.93</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H117" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I116" s="57">
-        <v>124.93</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="58" t="s">
+      <c r="I117" s="46">
+        <f>I115/I116-1</f>
+        <v>-0.27007933732200129</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H118" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="I117" s="59">
-        <f>I115/I116-1</f>
-        <v>1.3970195269767283E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="I118" s="60" t="str">
+      <c r="I118" s="47" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="H109:I109"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N82:O82"/>
     <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N104:O104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CRWD" display="ROIC.AI | CRWD" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
